--- a/Testdata/TC_68.xlsx
+++ b/Testdata/TC_68.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>FR0AAB+LCAAAAAAAAAOlWc1zI0cV/1emdIKDNDOSveuo2pPSh21USJbLkvE6F2o007Yaz0wr0z22ddsLFdiQE0mKkEDYUyiKDTlAFZWF8L+kkHc58S/w+mO+JHnXMlsu7/T76tevX7/36zZ69yYMjCscM0Kj3YpdsyoGjjzqk+hit5Lw86r9qPKug/ZuPBwcubEbYg7CBmhFrHnDyG5lyvmsaZrX19e160aNxhdm3bJs88mgP/KmOHSrJGLcjTxcybT8t2tVHNTxwwHmru9yV2nuVnqjXq2DidcF2sCN3Asc19oJIxFmbC/ihBPMhGaMXY473cFP1MKceu1RzUbmCj2XbCck8JVcSVLRtRxMi8ckxE7dsneq1k61YY9tu7nVaFp2rfFo571UMRNEfZfxEY6viCcJI+6GM6lu7TRs295qWDDbWiGwlQfAQcPAP8ZXhGG/g4OAbRQRU29gy+Ow6s2CaSGzoKsNPdyFg9idTceEB3gzN9rdsRFG2pfciIP2aYw9iN+DXDrE18NYh3U86wN3PCUxn3fd+ca2ThiOhzMRpM1UHdSlEW8FOOYnM9hr7EMqAMPhcYKReQczV+oS5sE3iRLsO+duwIpKJSY6pfElm7kePoRzbAob11FAXR8SjhPGiZdPusJARzGdgUWYvE0Dfx+sauE1jMxyL4IQi2nblF7m3q1jIrmrcn9hT0OXp+IrdDSa0uthFMxHyYR5MZlgv9tOpdfykDiQWruTME5D8CInIUUrUAYDcw7/4Awuc1AXeyR0g6MA4sicLTBUIqBWwuk54R0aJGHEUreWqOgUFjXGN9kiszEawv5GIu406kWpvIr0WlZZ4ZheZ3OuMmQcCuQW89IdX2UsC3eBlu7gKkduiljlPgmgRRS3o0AtJ8ZoijFfmxWKg0Q13BdNx2nPD5NwAidsAsfsSs7KkJnzEaQqpDv45VjQSKryZ2xZTfkDfmRstBf5d8ulTATTFeZybOAtkRCsKWgHbnQJ1FPCp4etdC1rOEhF4E75VR6CwzsL3LkkZ1Eq0lAv8oLEx6om9KJzmaLCN7Wpd7LRCqkPx9xBbjQfz2dQmhlpcvjYrUCzbjIeAxyoOB5NIh7PRfFAphZ9mw5LJpGcwA3urXMe4/cTQCHz/STyOtS//2y+is5JRPj9PaRJrCri/VVk9ERxTFgXizIj6/699b1N1sTijcTDCIc0It79ow1BFt77D1gIS0/VvTWwOl/3lg+gtavOJ876vdVigJDQ6zaapsUY9YhMVn08/IK+eceR6eJzNwkAvnHoshdZ7V0moxa7XJYpktBJHKQV0BHgmAE69vyw5gF+EAiw5tFQEEwApacjZBblBQjy8F500XejiwRgRlZXlulZ/RUtchy7ERPLyVDFUileL4TSOqXQjqOK1zCRiaCKFwUuMpfk0BiHMxq7wQACQ/Z12mnIBGhk4PKpHkFvC7CXBtnMVTOtsmep428Tk01KLUMceF0ml4hSSKxF4fBcJqchscoBHMug4wZkEquqmrbydTzYsBwfpvVXLG5DrJjuAdzFoPv+GM8FQM8Hmi5T1k4ZKoFFIXVGx1s79W3r0Q4gGzFGcsUHFG6AUQiiRhdPeNPo0hAL2Nc02u2mUWLPKCMcNleFSrejB1sp6qP9tO5L1waQviVCmQ/w44JAV1mRyxi5vDMAUDoN5gVJtfI+9UDw9uN/Lb79YvH028Wz5//9x28Xn/9z8fOv4KPdhl+a+eI3t3/+Tq1aKaGxOwmwdGzc3tmxGoAEcxISMTclaPYTj0va2ZnEytkY6SufHHT2ep2DfluWmYyYqqtOY4rb5Jwm+XCkFiMnkjttpgmiRJxxWrb0uMQtdC5H3O6ucFm6yL9LUcXi1cuvXr18cae2DlgOweCqX69aW29FaHBPblTt+h0IrV9qDUJ4W9zJ7UZBeEkGHau+kMWp5zsN23rHevxY3MMzWprX64SWWdrS2L0wl/QUqaNQU5YCxXHKlPk/hsOSsdWJKAx0qv7tw9d/+aQkpaOrKWUr4JxEN2IyMx1I04fHY2M0PDnu7BnjvZHIk5xXkFPG3yCsZ8/OVTFpVk9dKaXWUZW5Nyouz3gQ02S2UjFy6hrJtbVjlbukKWOz6lrOWyOvd+2LX6xT0Cvp5qA1e+Yo0lCJo0gFvj6Cn333779/sHjx5eLZH24//OXi+ceLj56X7OjZsjcASF04IMVhlslQxXRnWaKg05GM6aX100In0URxZTqiJOLMse1teV3SQwS6tjAn/0e9ELqbtCzDBvQlCvqRy/ZuuD6sziEyywRwdOZCY6X5NTMjqLqch/c/v/v97ed/vf30m9cf/Gnx7I+LX3366uWXr79+rk7S7Sff3H70ta7cy8Vd+iIurwrvGfI1xDPECTNEmza+f/prI6LcAHRhJLLKfP/0s4Ix4ajEIbllQG+ZI2UXVkSLykLPKLiS+VDSy1RUr++IttTIJHRjojPi5ZO8VxWmAIIakvGD3riaMGxQAE4/hJWUhXPl++ppFdUmjx5bdbuuucobsYSJywqhPwjoxA2MlCHfGpZESlpvVshl5XwH/WG71c9FlBPD2MexSEP1gVL0KNpEj6WjNNUKFOACxvOSQDwPrYitsjLLhXJm6neW85YvHt3Xv0qUJFAniWOFdiL9cj9KZoB70we5u/nykbIAdQ8VLC2C33zc65b5MC5wobmV2YIg+bJCaZaqVj0mnnQUcj0UocmHwCs9bEI49OO8Qk9XBLbEFIVnL45pvLb65JxUbACgGSqKmUc8k5F7qgC2n+9VSkgrXvahLnl6hbSLA8w3e7k2c+0BIOCH6sLeb6raY8PA18Hc7JaRhSU3UHy+F4ny/77eq2RrxTGAJfHWt/Fze3pHPYar7YbeqKVIRXHZg9n1e/g+iRl/IiqB/lKUs4xyplDnE0f/0eaJGp85jW1FAAGzaN0suZkeXa7+iEKDPgnJhjdAKz3fZSMQy9lMwbLeZpkiWsshvgHQWLAARXHyM2gb6slkE2sqYaGWZvrimZKRiynf1LHHExf7eGJVvQmuV7d8APfvYAw3Aht+u14drhHb4pFTG4fKQfD1hpOY6Yblf9x0/gfhIDnFFR0AAA==</t>
+          <t>Dh8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPbUP5C5JWRaF0QbiRSpRUhJEqrLyUgx3h9JUe2F2ZiXxzUDRJHWapyZB06ZN3ZcWRZ3moQWKuEj/S1DK7lP/Qs9c9kZSNlc1ZHvn3ObMmTPnfDNC79z6nnFNIkbDYHejVrU2DBI4oUuDi92NmE8qta2Nd2zUvXWId4wj7BMOwgZoBWznltHdjUvOpzumeXNzU71pVMPowqxbVs18MugPnUvi4woNGMeBQzZSLfftWhs2arv+gHDsYo6V5u5Gb9irtgl1OkAb4ABfkKjaihkNCGPdgFNOCROaEcGctDuDH6mF2fXqVrWGzCV6JtmKqecquYKkoms5mJaMqE/sulW3KtZ2pb45srZ3rOZOvVl91Gy8myimgqiPGR+S6Jo6kjDk2J9KdWu7vmltW816E5krhcBWFgAbHXnuCbmmjLht4nmsVERMvYF7DodVlwumhcycrjb0cBcOIjy9HFHukbLq+2FEHAjUg+Y+JDdHkY7faNoH7uiSRnzWwbPStk4ZiY6mIhrlVG3UCQO+55GIn05hU4kLew4Mm0cxQeY9zEypQ5kD3zSIiWtPsMfySgUmOgujKzbFDjmEA2sKGzeBF2IXMotTxqmTTbrEQMdROAWLMHkr9Nx9sKqFVzBSy70AQiymbYXhVebdKiaSOSCzAfbUxzwRX6Kj4WV4cxR4s2E8Zk5Ex8TttBLplTwkTp7WbseMhz54kZGQouUog4E5gz9w2BY5qEMc6mPv2IM4MnsTDBUIaC/m4YTydujFfsAStxao6AwWNSK36SLTMTqC/Q1E3MOgFyTyKtIrWUWFk/AmnXOZIeOQI+8xJ9nxZcaicAdoyQ4uc+SmiFXuUw96QX47ctRiYgwvCeErs0JxkCh7+6K72K3ZYeyP4YSN4Zhdy1kZMjM+glSFdAe/bAs6RkX+jCxrR/6AHykbdQP3frmEiWC63Fx2DXgLJARr8loeDq6Aekb55eFespYVHKQicK/8Mg/B4Z16eCbJaZTyNNQLHC92iaoJvWAiU1T4pjb1XjZaIvXhmNsIB7PRbAo1mNEdDh+7G9CVdxiPoO9v2E4YBzyaieKBTC36Nh0WjwM5AfbW1plE5L0Y4MZsPw6cduiuP5uronMaUL6+h2EcqYq4voqMniiOMesQUWZk3V9b3ymzJhaVEvcD4ocBddaPNgRZeO8+YCEsOVVraxB1vtaW96C1q84nzvraahFgReh1pabZYyx0qExWfTzcnL55z5HpkAmOPcBpHLrsRVp7F8loj10tyuRJ6DTykgpoCxTMAAY7rl91AD8IqFd1Ql8QTECfZ0Nk5uUFCHJIN7jo4+AiBpiR1pVFelp/RYscRThgYjkpqlgoxauFUFKnFNqxVfE6imUiqOIVAheZC3JoRPxpGGFvAIGh+zrtNGQCNDLA/FKPoLd5xEmCbGaqqVbRs8Txt4nJJqWWIQ68LpMLRCkk1qIAdyaT0ZBY5QCOpdfGHh1HqqomrXwVDzYsw4dJ/RWLK4kVkz2ASxd03x+SmUDi2UDTZcrWEoZKYFFI7eHJ5nb9kbW1DchGjJFc8UEIV73AB1GjQ8Z8x+iEPhGwb8dotXaMAnsaMsphc1WodDt6sJW8PtpP6r50bQDpWyAU+QA/Lih0lSW5lJHJ2wMApZfeLCepVt4PHRC8++Rf82++mD/9Zv7s+X//+ev5H346f/9n8NFqwT+a+eJXd3/5Vq1aKaERHntEOjZqbW9bDUCCGQmJmJsSNLuxwyXt/Fxi5XSM9N1ODtrdXvug35JlJiUm6qrTmOLaOAvjbDhUi5ETyZ02kwRRIvYoKVt6XODmOpctrnHXpCid59+nqGLx6uUfX718ca+2DlgGweCaW69Ym29FaHWr1qjU6vcgtH6hNQjhZsWCn3pOeEEGnai+kMap59qNmtW0Hj+2ammJd9O8XiW0yNKWRvjCXNBTpLZCTWkK5McJU+b/CA5LylYnIjfQqfr3j17/9dOClI6uphStgHMS3YjJzGQgTR+ejIzh0elJu2uMukORJxkvJ6eMv0FYz56eq3zSLJ+6Qkqtoipzb1RcnPEgCuPpUsXIqCskV9aOZe6CpozNsmsZb4W83rUvPlyloFfSyUCr3eqMDD9Ik0zSUIGjSDm+PoKff/vvf3wwf/Hl/Nnv7z76+fz5J/OPnxfs6NnSNwBIXTgg+WGayVDFdGdZoKCzoYzplfXjXCfRRHFlOg5pwJldqz2S1yU9RKBbE+bk/6jnQ3eTlmXYgL5AQT/ArHvL9WG1D5FZJICjUwyNNcyumSlB1eUsvP/57e/ufvO3u8++fv3Bn+fP/jT/xWevXn75+qvn6iTdffr13cdf6cq9WNylL+LyqvCeIV9DHEOcMEO0aeO7p780gpAbgC6MWFaZ755+njMmHJU4JLMM6C11pOjCkmheWegZOVdSHwp6qYrq9W3RlhqphG5M4ZQ62STvVoQpgKCGZHyvN6rEjBghAKfvw0qKwpnyunpaRbXJ48dWvVbXXOWNWMIYs1zoD7xwjD0jYci3hgWRgtabFTJZOd9B/6i1189ElBNHkUsikYbqA/VYgh+T9MpRgAu4zok98SS0JLbMQslXroSZ+m1lsueKF/XVLxEFCdSOo0ghnEA/yw/jKWDd5BHufr58mMzB20MFRfOANxv3OkU+jHNcaGhFtiBIvqxKmqUqVI+JZxyFVg9FaLIh8AqPmRAO/fKuENM1hW0wRbHpRlEYraw4GScRGwBQhipiZhFPZUwxpQLVbrZXCSGpcumHutjpFYYd4hFe+lk60R4A6n2oLux9WdUeO/JcHcxyN4s0LJmB/Nu8SJSyzuxFEUAh8ZJX+jG9T4OrXrnV27gxqW3XGw62tsTfbWzhTdLYch/jhjsZAzxXRsVFU5gQNxFxTSs3CQDAonp2pT6BS3ZJayrAUlFcOyFS8kDqwp6O0T6NGH8iSpT+UpTzlHKu4PAT4Z/6kONzu/FIEUDAzE9mFrxO6gtXv8YJvT71acmrqZUUoaIRSIPpVOHFshsKPe+Q3AKazVmAaj3+CfQz9ZZTxpo6VVDkU/3E1jAelzZnJsrHwBeJ9TDtrgvA7OHa8pci1Ps/HJDI66EmegGjF5e87L7Wm80G2SL1Sn3iOJVNGFSgG48rLp40a5Y1abiP6uLxWhuH7kDJTclJRE+hLMZeeT1z4bfa9v8APFFkWg4fAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,9 +42,9 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +65,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF3A56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,7 +117,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +531,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -555,7 +563,7 @@
         </is>
       </c>
       <c r="B14" s="5">
-        <v>42229</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="15">
@@ -758,4 +766,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
+          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
+          <SeriesId>310907701</SeriesId>
+          <Code>SR4825068</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875EB13C-CE73-4AB6-A768-51890C72DDF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_68.xlsx
+++ b/Testdata/TC_68.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Dh8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPbUP5C5JWRaF0QbiRSpRUhJEqrLyUgx3h9JUe2F2ZiXxzUDRJHWapyZB06ZN3ZcWRZ3moQWKuEj/S1DK7lP/Qs9c9kZSNlc1ZHvn3ObMmTPnfDNC79z6nnFNIkbDYHejVrU2DBI4oUuDi92NmE8qta2Nd2zUvXWId4wj7BMOwgZoBWznltHdjUvOpzumeXNzU71pVMPowqxbVs18MugPnUvi4woNGMeBQzZSLfftWhs2arv+gHDsYo6V5u5Gb9irtgl1OkAb4ABfkKjaihkNCGPdgFNOCROaEcGctDuDH6mF2fXqVrWGzCV6JtmKqecquYKkoms5mJaMqE/sulW3KtZ2pb45srZ3rOZOvVl91Gy8myimgqiPGR+S6Jo6kjDk2J9KdWu7vmltW816E5krhcBWFgAbHXnuCbmmjLht4nmsVERMvYF7DodVlwumhcycrjb0cBcOIjy9HFHukbLq+2FEHAjUg+Y+JDdHkY7faNoH7uiSRnzWwbPStk4ZiY6mIhrlVG3UCQO+55GIn05hU4kLew4Mm0cxQeY9zEypQ5kD3zSIiWtPsMfySgUmOgujKzbFDjmEA2sKGzeBF2IXMotTxqmTTbrEQMdROAWLMHkr9Nx9sKqFVzBSy70AQiymbYXhVebdKiaSOSCzAfbUxzwRX6Kj4WV4cxR4s2E8Zk5Ex8TttBLplTwkTp7WbseMhz54kZGQouUog4E5gz9w2BY5qEMc6mPv2IM4MnsTDBUIaC/m4YTydujFfsAStxao6AwWNSK36SLTMTqC/Q1E3MOgFyTyKtIrWUWFk/AmnXOZIeOQI+8xJ9nxZcaicAdoyQ4uc+SmiFXuUw96QX47ctRiYgwvCeErs0JxkCh7+6K72K3ZYeyP4YSN4Zhdy1kZMjM+glSFdAe/bAs6RkX+jCxrR/6AHykbdQP3frmEiWC63Fx2DXgLJARr8loeDq6Aekb55eFespYVHKQicK/8Mg/B4Z16eCbJaZTyNNQLHC92iaoJvWAiU1T4pjb1XjZaIvXhmNsIB7PRbAo1mNEdDh+7G9CVdxiPoO9v2E4YBzyaieKBTC36Nh0WjwM5AfbW1plE5L0Y4MZsPw6cduiuP5uronMaUL6+h2EcqYq4voqMniiOMesQUWZk3V9b3ymzJhaVEvcD4ocBddaPNgRZeO8+YCEsOVVraxB1vtaW96C1q84nzvraahFgReh1pabZYyx0qExWfTzcnL55z5HpkAmOPcBpHLrsRVp7F8loj10tyuRJ6DTykgpoCxTMAAY7rl91AD8IqFd1Ql8QTECfZ0Nk5uUFCHJIN7jo4+AiBpiR1pVFelp/RYscRThgYjkpqlgoxauFUFKnFNqxVfE6imUiqOIVAheZC3JoRPxpGGFvAIGh+zrtNGQCNDLA/FKPoLd5xEmCbGaqqVbRs8Txt4nJJqWWIQ68LpMLRCkk1qIAdyaT0ZBY5QCOpdfGHh1HqqomrXwVDzYsw4dJ/RWLK4kVkz2ASxd03x+SmUDi2UDTZcrWEoZKYFFI7eHJ5nb9kbW1DchGjJFc8UEIV73AB1GjQ8Z8x+iEPhGwb8dotXaMAnsaMsphc1WodDt6sJW8PtpP6r50bQDpWyAU+QA/Lih0lSW5lJHJ2wMApZfeLCepVt4PHRC8++Rf82++mD/9Zv7s+X//+ev5H346f/9n8NFqwT+a+eJXd3/5Vq1aKaERHntEOjZqbW9bDUCCGQmJmJsSNLuxwyXt/Fxi5XSM9N1ODtrdXvug35JlJiUm6qrTmOLaOAvjbDhUi5ETyZ02kwRRIvYoKVt6XODmOpctrnHXpCid59+nqGLx6uUfX718ca+2DlgGweCaW69Ym29FaHWr1qjU6vcgtH6hNQjhZsWCn3pOeEEGnai+kMap59qNmtW0Hj+2ammJd9O8XiW0yNKWRvjCXNBTpLZCTWkK5McJU+b/CA5LylYnIjfQqfr3j17/9dOClI6uphStgHMS3YjJzGQgTR+ejIzh0elJu2uMukORJxkvJ6eMv0FYz56eq3zSLJ+6Qkqtoipzb1RcnPEgCuPpUsXIqCskV9aOZe6CpozNsmsZb4W83rUvPlyloFfSyUCr3eqMDD9Ik0zSUIGjSDm+PoKff/vvf3wwf/Hl/Nnv7z76+fz5J/OPnxfs6NnSNwBIXTgg+WGayVDFdGdZoKCzoYzplfXjXCfRRHFlOg5pwJldqz2S1yU9RKBbE+bk/6jnQ3eTlmXYgL5AQT/ArHvL9WG1D5FZJICjUwyNNcyumSlB1eUsvP/57e/ufvO3u8++fv3Bn+fP/jT/xWevXn75+qvn6iTdffr13cdf6cq9WNylL+LyqvCeIV9DHEOcMEO0aeO7p780gpAbgC6MWFaZ755+njMmHJU4JLMM6C11pOjCkmheWegZOVdSHwp6qYrq9W3RlhqphG5M4ZQ62STvVoQpgKCGZHyvN6rEjBghAKfvw0qKwpnyunpaRbXJ48dWvVbXXOWNWMIYs1zoD7xwjD0jYci3hgWRgtabFTJZOd9B/6i1189ElBNHkUsikYbqA/VYgh+T9MpRgAu4zok98SS0JLbMQslXroSZ+m1lsueKF/XVLxEFCdSOo0ghnEA/yw/jKWDd5BHufr58mMzB20MFRfOANxv3OkU+jHNcaGhFtiBIvqxKmqUqVI+JZxyFVg9FaLIh8AqPmRAO/fKuENM1hW0wRbHpRlEYraw4GScRGwBQhipiZhFPZUwxpQLVbrZXCSGpcumHutjpFYYd4hFe+lk60R4A6n2oLux9WdUeO/JcHcxyN4s0LJmB/Nu8SJSyzuxFEUAh8ZJX+jG9T4OrXrnV27gxqW3XGw62tsTfbWzhTdLYch/jhjsZAzxXRsVFU5gQNxFxTSs3CQDAonp2pT6BS3ZJayrAUlFcOyFS8kDqwp6O0T6NGH8iSpT+UpTzlHKu4PAT4Z/6kONzu/FIEUDAzE9mFrxO6gtXv8YJvT71acmrqZUUoaIRSIPpVOHFshsKPe+Q3AKazVmAaj3+CfQz9ZZTxpo6VVDkU/3E1jAelzZnJsrHwBeJ9TDtrgvA7OHa8pci1Ps/HJDI66EmegGjF5e87L7Wm80G2SL1Sn3iOJVNGFSgG48rLp40a5Y1abiP6uLxWhuH7kDJTclJRE+hLMZeeT1z4bfa9v8APFFkWg4fAAA=</t>
+          <t>FR0AAB+LCAAAAAAAAAOlWc1zI0cV/1emdIKDNDOSveuo2pPSh21USJbLkvE6F2o007Yaz0wr0z22ddsLFdiQE0mKkEDYUyiKDTlAFZWF8L+kkHc58S/w+mO+JHnXMlsu7/T76tevX7/36zZ69yYMjCscM0Kj3YpdsyoGjjzqk+hit5Lw86r9qPKug/ZuPBwcubEbYg7CBmhFrHnDyG5lyvmsaZrX19e160aNxhdm3bJs88mgP/KmOHSrJGLcjTxcybT8t2tVHNTxwwHmru9yV2nuVnqjXq2DidcF2sCN3Asc19oJIxFmbC/ihBPMhGaMXY473cFP1MKceu1RzUbmCj2XbCck8JVcSVLRtRxMi8ckxE7dsneq1k61YY9tu7nVaFp2rfFo571UMRNEfZfxEY6viCcJI+6GM6lu7TRs295qWDDbWiGwlQfAQcPAP8ZXhGG/g4OAbRQRU29gy+Ow6s2CaSGzoKsNPdyFg9idTceEB3gzN9rdsRFG2pfciIP2aYw9iN+DXDrE18NYh3U86wN3PCUxn3fd+ca2ThiOhzMRpM1UHdSlEW8FOOYnM9hr7EMqAMPhcYKReQczV+oS5sE3iRLsO+duwIpKJSY6pfElm7kePoRzbAob11FAXR8SjhPGiZdPusJARzGdgUWYvE0Dfx+sauE1jMxyL4IQi2nblF7m3q1jIrmrcn9hT0OXp+IrdDSa0uthFMxHyYR5MZlgv9tOpdfykDiQWruTME5D8CInIUUrUAYDcw7/4Awuc1AXeyR0g6MA4sicLTBUIqBWwuk54R0aJGHEUreWqOgUFjXGN9kiszEawv5GIu406kWpvIr0WlZZ4ZheZ3OuMmQcCuQW89IdX2UsC3eBlu7gKkduiljlPgmgRRS3o0AtJ8ZoijFfmxWKg0Q13BdNx2nPD5NwAidsAsfsSs7KkJnzEaQqpDv45VjQSKryZ2xZTfkDfmRstBf5d8ulTATTFeZybOAtkRCsKWgHbnQJ1FPCp4etdC1rOEhF4E75VR6CwzsL3LkkZ1Eq0lAv8oLEx6om9KJzmaLCN7Wpd7LRCqkPx9xBbjQfz2dQmhlpcvjYrUCzbjIeAxyoOB5NIh7PRfFAphZ9mw5LJpGcwA3urXMe4/cTQCHz/STyOtS//2y+is5JRPj9PaRJrCri/VVk9ERxTFgXizIj6/699b1N1sTijcTDCIc0It79ow1BFt77D1gIS0/VvTWwOl/3lg+gtavOJ876vdVigJDQ6zaapsUY9YhMVn08/IK+eceR6eJzNwkAvnHoshdZ7V0moxa7XJYpktBJHKQV0BHgmAE69vyw5gF+EAiw5tFQEEwApacjZBblBQjy8F500XejiwRgRlZXlulZ/RUtchy7ERPLyVDFUileL4TSOqXQjqOK1zCRiaCKFwUuMpfk0BiHMxq7wQACQ/Z12mnIBGhk4PKpHkFvC7CXBtnMVTOtsmep428Tk01KLUMceF0ml4hSSKxF4fBcJqchscoBHMug4wZkEquqmrbydTzYsBwfpvVXLG5DrJjuAdzFoPv+GM8FQM8Hmi5T1k4ZKoFFIXVGx1s79W3r0Q4gGzFGcsUHFG6AUQiiRhdPeNPo0hAL2Nc02u2mUWLPKCMcNleFSrejB1sp6qP9tO5L1waQviVCmQ/w44JAV1mRyxi5vDMAUDoN5gVJtfI+9UDw9uN/Lb79YvH028Wz5//9x28Xn/9z8fOv4KPdhl+a+eI3t3/+Tq1aKaGxOwmwdGzc3tmxGoAEcxISMTclaPYTj0va2ZnEytkY6SufHHT2ep2DfluWmYyYqqtOY4rb5Jwm+XCkFiMnkjttpgmiRJxxWrb0uMQtdC5H3O6ucFm6yL9LUcXi1cuvXr18cae2DlgOweCqX69aW29FaHBPblTt+h0IrV9qDUJ4W9zJ7UZBeEkGHau+kMWp5zsN23rHevxY3MMzWprX64SWWdrS2L0wl/QUqaNQU5YCxXHKlPk/hsOSsdWJKAx0qv7tw9d/+aQkpaOrKWUr4JxEN2IyMx1I04fHY2M0PDnu7BnjvZHIk5xXkFPG3yCsZ8/OVTFpVk9dKaXWUZW5Nyouz3gQ02S2UjFy6hrJtbVjlbukKWOz6lrOWyOvd+2LX6xT0Cvp5qA1e+Yo0lCJo0gFvj6Cn333779/sHjx5eLZH24//OXi+ceLj56X7OjZsjcASF04IMVhlslQxXRnWaKg05GM6aX100In0URxZTqiJOLMse1teV3SQwS6tjAn/0e9ELqbtCzDBvQlCvqRy/ZuuD6sziEyywRwdOZCY6X5NTMjqLqch/c/v/v97ed/vf30m9cf/Gnx7I+LX3366uWXr79+rk7S7Sff3H70ta7cy8Vd+iIurwrvGfI1xDPECTNEmza+f/prI6LcAHRhJLLKfP/0s4Ix4ajEIbllQG+ZI2UXVkSLykLPKLiS+VDSy1RUr++IttTIJHRjojPi5ZO8VxWmAIIakvGD3riaMGxQAE4/hJWUhXPl++ppFdUmjx5bdbuuucobsYSJywqhPwjoxA2MlCHfGpZESlpvVshl5XwH/WG71c9FlBPD2MexSEP1gVL0KNpEj6WjNNUKFOACxvOSQDwPrYitsjLLhXJm6neW85YvHt3Xv0qUJFAniWOFdiL9cj9KZoB70we5u/nykbIAdQ8VLC2C33zc65b5MC5wobmV2YIg+bJCaZaqVj0mnnQUcj0UocmHwCs9bEI49OO8Qk9XBLbEFIVnL45pvLb65JxUbACgGSqKmUc8k5F7qgC2n+9VSkgrXvahLnl6hbSLA8w3e7k2c+0BIOCH6sLeb6raY8PA18Hc7JaRhSU3UHy+F4ny/77eq2RrxTGAJfHWt/Fze3pHPYar7YbeqKVIRXHZg9n1e/g+iRl/IiqB/lKUs4xyplDnE0f/0eaJGp85jW1FAAGzaN0suZkeXa7+iEKDPgnJhjdAKz3fZSMQy9lMwbLeZpkiWsshvgHQWLAARXHyM2gb6slkE2sqYaGWZvrimZKRiynf1LHHExf7eGJVvQmuV7d8APfvYAw3Aht+u14drhHb4pFTG4fKQfD1hpOY6Yblf9x0/gfhIDnFFR0AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,9 +42,9 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="###0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,14 +65,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF3A56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,7 +109,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -563,7 +555,7 @@
         </is>
       </c>
       <c r="B14" s="5">
-        <v>43710</v>
+        <v>42229</v>
       </c>
     </row>
     <row r="15">
@@ -766,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
-          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
-          <SeriesId>310907701</SeriesId>
-          <Code>SR4825068</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875EB13C-CE73-4AB6-A768-51890C72DDF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>